--- a/Cadastro.xlsx
+++ b/Cadastro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CG727DJ\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818BD41F-7C12-476F-87F7-B66D30AE0845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17AB1E1-FA33-4F20-A5C9-46AF9C822A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -596,12 +596,70 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -611,24 +669,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -648,46 +688,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -979,105 +979,106 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="40" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="41"/>
+      <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="40" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="41"/>
+      <c r="H4" s="26"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="42" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="43"/>
+      <c r="H5" s="31"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="37"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="10"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="19"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="33"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="33"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
@@ -1085,8 +1086,8 @@
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="12" t="s">
         <v>10</v>
       </c>
@@ -1102,20 +1103,20 @@
       <c r="D10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="33"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
       <c r="G11" s="11" t="s">
         <v>34</v>
       </c>
@@ -1129,9 +1130,9 @@
       <c r="C12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="33"/>
       <c r="G12" s="12" t="s">
         <v>16</v>
       </c>
@@ -1145,47 +1146,47 @@
       <c r="C13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="33"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="33"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="33"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="33"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
@@ -1196,30 +1197,30 @@
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="19"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="33"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="22"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="42"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="32"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="46"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
@@ -1244,14 +1245,14 @@
         <v>24</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="35" t="s">
+      <c r="C21" s="47"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="37"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
@@ -1265,9 +1266,9 @@
       <c r="E22" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="19"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="33"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
@@ -1281,134 +1282,122 @@
       <c r="E23" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="19"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="33"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="29"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="43"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="22"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="42"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="22"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="42"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="29"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="43"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="22"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="42"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="22"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="42"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="22"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="42"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="25"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="36"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="28"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
     <mergeCell ref="A31:H31"/>
     <mergeCell ref="A32:H32"/>
     <mergeCell ref="C7:H7"/>
@@ -1425,16 +1414,28 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
